--- a/数据整理/stocks/A股/创业板/300653-正海生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300653-正海生物.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.89</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.01</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>88.46</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.75</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>88.46</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.75</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006165</t>
+          <t>570007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强A</t>
+          <t>诺德优选30混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006166</t>
+          <t>006165</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强C</t>
+          <t>建信中证1000指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.08</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.19</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>570007</t>
+          <t>006166</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺德优选30混合</t>
+          <t>建信中证1000指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300653-正海生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300653-正海生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300653-正海生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300653-正海生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1410,4 +1411,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300653-正海生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300653-正海生物.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.58</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1561,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
@@ -1482,13 +1577,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300653-正海生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300653-正海生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.58</v>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1642,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="5">
@@ -1593,13 +1764,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300653-正海生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300653-正海生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3959</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.16</v>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1748,14 +1813,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.58</v>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1764,14 +1851,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1889,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300653-正海生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300653-正海生物.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.89</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.58</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -583,6 +600,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5453</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4372</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3417</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3337</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -904,7 +1547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1074,7 +1717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1168,7 +1811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1794,7 +2437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1964,7 +2607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300653-正海生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300653-正海生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>2.51</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.89</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.58</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -600,6 +617,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4570</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4519</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004982</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华安享多裕定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>45.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1225,7 +1716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1547,7 +2038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1717,7 +2208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1811,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2437,7 +2928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2607,7 +3098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
